--- a/stock_list.xlsx
+++ b/stock_list.xlsx
@@ -7,97 +7,28 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Ranking</t>
+  </si>
   <si>
     <t>Symbol</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>Hp</t>
   </si>
   <si>
-    <t>Last</t>
+    <t>Asana</t>
   </si>
   <si>
-    <t>%Change</t>
-  </si>
-  <si>
-    <t>Mark %Change</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Call Sizzle Index</t>
-  </si>
-  <si>
-    <t>RelVol%</t>
-  </si>
-  <si>
-    <t>Ranking</t>
-  </si>
-  <si>
-    <t>PEABODY ENERGY CO COM</t>
-  </si>
-  <si>
-    <t>GRAYSCALE BITCOIN TRUST BTC COM</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>DDD</t>
-  </si>
-  <si>
-    <t>FSR</t>
-  </si>
-  <si>
-    <t>GSK</t>
-  </si>
-  <si>
-    <t>WARRIOR MET COAL INC COM</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>LOEWS CORP COM</t>
-  </si>
-  <si>
-    <t>LITE</t>
-  </si>
-  <si>
-    <t>PENNYMAC MTG INVEST TRUST COM USD0.01</t>
-  </si>
-  <si>
-    <t>NPTN</t>
-  </si>
-  <si>
-    <t>SFL CORPORATION LTD COM</t>
-  </si>
-  <si>
-    <t>PRTY</t>
-  </si>
-  <si>
-    <t>TASEKO MINES COM</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>VEONEER INC COM</t>
-  </si>
-  <si>
-    <t>IONQ</t>
-  </si>
-  <si>
-    <t>WELBILT INC COM</t>
+    <t>Apple</t>
   </si>
 </sst>
 </file>
@@ -437,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -568,19 +499,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -594,14 +512,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -649,27 +567,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1014,298 +920,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6">
-        <v>17.489999999999998</v>
-      </c>
-      <c r="D2" s="7">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E2" s="7">
-        <v>3.1099999999999999E-2</v>
-      </c>
-      <c r="F2" s="6">
-        <v>11671295</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1.66</v>
-      </c>
-      <c r="I2" s="5"/>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6">
-        <v>40.44</v>
-      </c>
-      <c r="D3" s="7">
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="F3" s="6">
-        <v>7148195</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1.19</v>
-      </c>
-      <c r="I3" s="5"/>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6">
-        <v>28.05</v>
-      </c>
-      <c r="D4" s="7">
-        <v>3.4299999999999997E-2</v>
-      </c>
-      <c r="E4" s="7">
-        <v>3.4299999999999997E-2</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1559583</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.995</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1.63</v>
-      </c>
-      <c r="I4" s="5"/>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6">
-        <v>56.28</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2.2700000000000001E-2</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2.2700000000000001E-2</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1081297</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.253</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1.19</v>
-      </c>
-      <c r="I5" s="5"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="6">
-        <v>20.07</v>
-      </c>
-      <c r="D6" s="7">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="E6" s="7">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F6" s="6">
-        <v>609707</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.82</v>
-      </c>
-      <c r="I6" s="5"/>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="6">
-        <v>8.42</v>
-      </c>
-      <c r="D7" s="7">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="E7" s="7">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="F7" s="6">
-        <v>737685</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1.01</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.72</v>
-      </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1.96</v>
-      </c>
-      <c r="D8" s="7">
-        <v>4.8099999999999997E-2</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4.8099999999999997E-2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>3326634</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1.077</v>
-      </c>
-      <c r="H8" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="6">
-        <v>35.79</v>
-      </c>
-      <c r="D9" s="7">
-        <v>-1.11E-2</v>
-      </c>
-      <c r="E9" s="7">
-        <v>-1.2200000000000001E-2</v>
-      </c>
-      <c r="F9" s="6">
-        <v>5782182</v>
-      </c>
-      <c r="G9" s="6">
-        <v>2.1360000000000001</v>
-      </c>
-      <c r="H9" s="6">
-        <v>4.66</v>
-      </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="6">
-        <v>23.58</v>
-      </c>
-      <c r="D10" s="7">
-        <v>-8.0000000000000004E-4</v>
-      </c>
-      <c r="E10" s="7">
-        <v>-8.0000000000000004E-4</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1642615</v>
-      </c>
-      <c r="G10" s="6">
-        <v>2.2490000000000001</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1.18</v>
-      </c>
-      <c r="I10" s="5"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>